--- a/Elite.xlsx
+++ b/Elite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austin.mcnicholas_wi\Desktop\Python Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E24153D-55AE-4D16-8CCE-628865F27680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC525A-AE21-4B69-B9A5-267C0856469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26820" yWindow="2565" windowWidth="17280" windowHeight="8880" xr2:uid="{5B78DADE-9222-4896-9078-D9BB01AD7BC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B78DADE-9222-4896-9078-D9BB01AD7BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Coach Austin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="347">
   <si>
     <t>Username</t>
   </si>
@@ -846,9 +846,6 @@
   </si>
   <si>
     <t>Asher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renewal </t>
   </si>
   <si>
     <t>AmanRitchey@gmail.com</t>
@@ -938,9 +935,6 @@
 M1.06	8/29	Develop a routine, even when striking out </t>
   </si>
   <si>
-    <t xml:space="preserve">Sessions </t>
-  </si>
-  <si>
     <t xml:space="preserve">Free Session 	6/27	Introduction, Worked on Swag and movement 
 M1.01	7/2	Pitching Hunting , Fastballs inside only 
 M1.02	7/19	Worked on pitch hutning, did a lot better than before, worked live ab's 
@@ -990,9 +984,6 @@
   </si>
   <si>
     <t>Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/5 Hands needs to raise when the foot goes up, next time work on the bat angle ("Bat points towards the sky) </t>
   </si>
   <si>
     <t xml:space="preserve">M1.01	8/1	Hunting inside fastballs, let it eat, take the outside pitch and take breaking balls 
@@ -1047,29 +1038,90 @@
     <t xml:space="preserve">M1.01	7/14	Barrel feel, slow and early timing, locking position </t>
   </si>
   <si>
+    <t xml:space="preserve">M1.01	7/25	Hunting inside fastballs, let it eat, take the outside pitch and take breaking balls 
+M1.02	8/3	Advanced Ambush Hitting, Palm Up all the way through finish 
+M1.03	8/10	Palm up movement, Quantity over Quality 
+M1.04	9/9	Palm Up Full intent , next time work on load </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate around Pole/ Head still  
+From launch , tight turn, trouble with the curveball , drill turn infront of the wall, next time work on barrel path adjustability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't break the pole, body movements will slide up 
+Slow and Early Load, Scisscor kick tends to slide up 
+Looks a lot better when sliding up due to the beltre drill. Next time work more on tendencies with the drill and also start playing chess and think about what could be coming next.  </t>
+  </si>
+  <si>
+    <t>Pull the bow and finish low , next time work on rhythm , dance and timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on slow and early timing, he struggles at the beginning of the season. Next time work on his load and incorporating his body more. Needs to use legs more with touching on the coil aspect of the swing. </t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Jaxson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow and Early Timing, Will get off balance during the load, Big Kid, High School, Will lunch and just needs to rotate. Next time work on the approach/ play chess instead of checkers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow and Early load, needs help on hitting velo and recognizing pitches, wants to play juco or tcs, next time talk about approach when encountering success and failure 	
+Developing a routine when stepping in the box and when to think. Soft focus vs Hard focus. A quick 0-2 is an easy 1 for 3. Next time work on separation and coil, needs to use legs more. 
+</t>
+  </si>
+  <si>
+    <t>M1.01	7/25	Hunting inside fastballs, let it eat, take the outside pitch and take breaking balls 
+M1.02	9/9	Pull the bow , chop feel , launch position, hit the pitcher in the foot, straighten out path</t>
+  </si>
+  <si>
+    <t>Evan Camhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noah Gallacher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/5 Hands needs to raise when the foot goes up, next time work on the bat angle ("Bat points towards the sky) 
+9/10 Pause at launch position then swing. Pull the bow and get into the slot. Mix in normal swings and launch position drill, next time work on connection between upper and lower half </t>
+  </si>
+  <si>
+    <t>Cayden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10 Timing Evaluation, Slow an Early Load , plays rec, next time work on getting hands higher up/ better launch position, land soft on the front side, hang the leg </t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on stance, never played before, 9u, wants to play in the future , right hand on top/hands are switched , elbow higher and more bend in the knees , start your bounce when he picks up his leg </t>
+  </si>
+  <si>
+    <t>Merrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/10 Timing and load , 10u , needs to be slow and early, next time work on having a better base, knob to knee drill </t>
+  </si>
+  <si>
     <t xml:space="preserve">M1.01	7/14	Worked on coil and huting pitches 
 M1.02	7/21	Worked on barrel up and knob to the ball ... still incorporated coil 
 M1.03	7/28	Barrel Adjustability , knob to the ball, up and down
 M1.04	8/11	Tone down coil, can't pull ball 
 M1.04	8/17	Barrel Path Adjustability, Adrian Beltre Drill 
-M1.05	8/25	Barrel Path Adjustabiltiy, right hip see how much it dips , Next time BPA work on inside fastballs </t>
-  </si>
-  <si>
-    <t>Pull the bow and finish low , next time work on rhythm , dance and time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1.01	7/25	Hunting inside fastballs, let it eat, take the outside pitch and take breaking balls 
-M1.02	8/3	Advanced Ambush Hitting, Palm Up all the way through finish 
-M1.03	8/10	Palm up movement, Quantity over Quality 
-M1.04	9/9	Palm Up Full intent , next time work on load </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate around Pole/ Head still  
-From launch , tight turn, trouble with the curveball , drill turn infront of the wall, next time work on barrel path adjustability </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't break the pole, body movements will slide up 
-Slow and Early Load, Scisscor kick tends to slide up </t>
+M1.05	8/25	Barrel Path Adjustabiltiy, right hip see how much it dips , Next time BPA work on inside fastballs 
+Hurt finger diving in practice 
+M1.06 9/10 Higher Velo inside, needs to be slower and earlier , needs to be slow and early , land when the ball hits the cutoff , yes drill, pitches and sliders </t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>Sub_Type</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBF8E26-9FA4-4926-A233-AE052F5DEBD5}">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M73" workbookViewId="0">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1548,7 @@
     <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="176.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="92.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="186" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1513,7 +1565,7 @@
         <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="F1" t="s">
         <v>202</v>
@@ -1522,10 +1574,10 @@
         <v>206</v>
       </c>
       <c r="H1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" t="s">
         <v>275</v>
-      </c>
-      <c r="I1" t="s">
-        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>205</v>
@@ -1534,13 +1586,13 @@
         <v>235</v>
       </c>
       <c r="L1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N1" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1592,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1618,7 +1670,7 @@
         <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1644,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1670,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1696,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1725,10 +1777,10 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1757,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1783,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1812,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1864,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1962,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1988,12 +2040,12 @@
         <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -2103,7 +2155,7 @@
         <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
@@ -2129,7 +2181,7 @@
         <v>33</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2152,9 +2204,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2175,12 +2227,12 @@
         <v>33</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -2249,7 +2301,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -2270,7 +2322,7 @@
         <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2339,7 +2391,7 @@
         <v>33</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2516,7 +2568,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -2539,7 +2591,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -2643,10 +2695,10 @@
         <v>191</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="J47">
         <v>33</v>
@@ -2677,7 +2729,7 @@
     </row>
     <row r="49" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -2695,16 +2747,16 @@
         <v>191</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="J49">
         <v>33</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2772,7 +2824,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
@@ -2795,7 +2847,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
@@ -2882,7 +2934,7 @@
         <v>33</v>
       </c>
       <c r="M57" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -3056,7 +3108,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B66" t="s">
         <v>133</v>
@@ -3079,7 +3131,7 @@
     </row>
     <row r="67" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
@@ -3100,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3164,6 +3216,9 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>331</v>
+      </c>
       <c r="B71" t="s">
         <v>143</v>
       </c>
@@ -3181,6 +3236,9 @@
       </c>
       <c r="J71">
         <v>50</v>
+      </c>
+      <c r="M71" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3228,7 +3286,7 @@
     </row>
     <row r="74" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
         <v>149</v>
@@ -3249,7 +3307,7 @@
         <v>50</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3312,7 +3370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -3335,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3358,7 +3416,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>330</v>
+      </c>
       <c r="B80" t="s">
         <v>161</v>
       </c>
@@ -3377,10 +3438,13 @@
       <c r="J80">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M80" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
         <v>163</v>
@@ -3401,7 +3465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>165</v>
       </c>
@@ -3421,7 +3485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>167</v>
       </c>
@@ -3441,7 +3505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>169</v>
       </c>
@@ -3461,7 +3525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>171</v>
       </c>
@@ -3481,9 +3545,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s">
         <v>173</v>
@@ -3504,7 +3568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>175</v>
       </c>
@@ -3524,7 +3588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>177</v>
       </c>
@@ -3544,7 +3608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>179</v>
       </c>
@@ -3564,7 +3628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>181</v>
       </c>
@@ -3584,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>183</v>
       </c>
@@ -3604,7 +3668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>185</v>
       </c>
@@ -3624,7 +3688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>187</v>
       </c>
@@ -3644,7 +3708,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>342</v>
+      </c>
       <c r="B94" t="s">
         <v>189</v>
       </c>
@@ -3663,10 +3730,13 @@
       <c r="J94">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M94" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B95" t="s">
         <v>192</v>
@@ -3686,8 +3756,11 @@
       <c r="J95">
         <v>33</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M95" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>194</v>
       </c>
@@ -3709,7 +3782,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B97" t="s">
         <v>195</v>
@@ -3732,7 +3805,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B98" t="s">
         <v>197</v>
@@ -3755,7 +3828,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>200</v>
@@ -3776,12 +3849,12 @@
         <v>33</v>
       </c>
       <c r="M99" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s">
         <v>208</v>
@@ -3801,8 +3874,8 @@
       <c r="J100">
         <v>50</v>
       </c>
-      <c r="M100" t="s">
-        <v>314</v>
+      <c r="M100" s="7" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -3827,7 +3900,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
         <v>212</v>
@@ -3848,7 +3921,7 @@
         <v>50</v>
       </c>
       <c r="M102" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -3896,7 +3969,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
         <v>218</v>
@@ -3917,7 +3990,7 @@
         <v>50</v>
       </c>
       <c r="M105" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -3941,6 +4014,9 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
       <c r="B107" t="s">
         <v>222</v>
       </c>
@@ -3958,6 +4034,9 @@
       </c>
       <c r="J107">
         <v>50</v>
+      </c>
+      <c r="M107" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -4041,6 +4120,9 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>338</v>
+      </c>
       <c r="B112" t="s">
         <v>232</v>
       </c>
@@ -4059,8 +4141,11 @@
       <c r="J112">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>239</v>
       </c>
@@ -4080,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>240</v>
       </c>
@@ -4100,7 +4185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>241</v>
       </c>
@@ -4121,12 +4206,12 @@
       </c>
       <c r="K115" s="4"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D116" s="3">
         <v>45168</v>
@@ -4142,12 +4227,15 @@
       </c>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>340</v>
+      </c>
       <c r="B117" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D117" s="3">
         <v>45170</v>
@@ -4162,13 +4250,16 @@
         <v>50</v>
       </c>
       <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="M117" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D118" s="3">
         <v>45170</v>
@@ -4184,7 +4275,7 @@
       </c>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>233</v>
       </c>
@@ -4205,7 +4296,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N119" xr:uid="{6DBF8E26-9FA4-4926-A233-AE052F5DEBD5}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B9C23D39-BF94-4AA5-AF94-8172C47E6CFA}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{3B8F7E3B-42E3-41DD-84B5-1B4D22B328EC}"/>
